--- a/xlsx/country_comparison/field_keyword_main_positive.xlsx
+++ b/xlsx/country_comparison/field_keyword_main_positive.xlsx
@@ -74,10 +74,10 @@
     <t xml:space="preserve">Nothing; don't know; empty</t>
   </si>
   <si>
+    <t xml:space="preserve">Economy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Government; president</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economy</t>
   </si>
   <si>
     <t xml:space="preserve">Inflation; cost of living</t>
@@ -541,10 +541,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.10244497299511</v>
+        <v>0.102522481676616</v>
       </c>
       <c r="C3" t="n">
-        <v>0.126725417109624</v>
+        <v>0.126903713743287</v>
       </c>
       <c r="D3" t="n">
         <v>0.101500215876694</v>
@@ -556,7 +556,7 @@
         <v>0.14622572265218</v>
       </c>
       <c r="G3" t="n">
-        <v>0.121570355339484</v>
+        <v>0.123299614530166</v>
       </c>
       <c r="H3" t="n">
         <v>0.159479355203936</v>
@@ -582,13 +582,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0925144610254368</v>
+        <v>0.0926148225458337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0904854743970051</v>
+        <v>0.0907163404224399</v>
       </c>
       <c r="D4" t="n">
-        <v>0.105582554148362</v>
+        <v>0.106882912115324</v>
       </c>
       <c r="E4" t="n">
         <v>0.0947465259960133</v>
@@ -600,7 +600,7 @@
         <v>0.110593408120899</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0788491814450573</v>
+        <v>0.0788491814450574</v>
       </c>
       <c r="I4" t="n">
         <v>0.0959198410759693</v>
@@ -609,7 +609,7 @@
         <v>0.0600154515657946</v>
       </c>
       <c r="K4" t="n">
-        <v>0.083766464957221</v>
+        <v>0.0837664649572209</v>
       </c>
       <c r="L4" t="n">
         <v>0.0602178270789178</v>
@@ -623,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0719215881462026</v>
+        <v>0.0719953021996957</v>
       </c>
       <c r="C5" t="n">
         <v>0.0651884757861758</v>
@@ -650,7 +650,7 @@
         <v>0.0428373737667234</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0726340153568815</v>
+        <v>0.073122986528768</v>
       </c>
       <c r="L5" t="n">
         <v>0.102037616300348</v>
@@ -761,13 +761,13 @@
         <v>0.029744754106229</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0663865396156051</v>
+        <v>0.0663865396156052</v>
       </c>
       <c r="H8" t="n">
         <v>0.0335897645052565</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0279930616552986</v>
+        <v>0.0279930616552985</v>
       </c>
       <c r="J8" t="n">
         <v>0.0247185603776682</v>
@@ -787,40 +787,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0465217339438901</v>
+        <v>0.0476724774114825</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0285615312623572</v>
+        <v>0.0387734005589055</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0320049726035638</v>
+        <v>0.011474957650423</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0241596296022602</v>
+        <v>0.0437714005759224</v>
       </c>
       <c r="F9" t="n">
-        <v>0.019577662110769</v>
+        <v>0.0626502583920119</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0180001922636902</v>
+        <v>0.0110333227815035</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0270399273282725</v>
+        <v>0.0514157193779358</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0475792780892838</v>
+        <v>0.0457402413085588</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0189273882550392</v>
+        <v>0.0309094204739583</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0386062974652222</v>
+        <v>0.0350799700385311</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000862233596311687</v>
+        <v>0.0199711849845625</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0741900880637061</v>
+        <v>0.0652625479002723</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.046499817907133</v>
+        <v>0.0465217339438901</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0379040467198535</v>
+        <v>0.0285615312623572</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0100695655158699</v>
+        <v>0.0320049726035639</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0437714005759224</v>
+        <v>0.0241596296022602</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0626502583920119</v>
+        <v>0.019577662110769</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0110333227815035</v>
+        <v>0.0180001922636902</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0514157193779358</v>
+        <v>0.0270399273282725</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0424714968643609</v>
+        <v>0.0475792780892838</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02912794054806</v>
+        <v>0.0189273882550392</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0325952451547009</v>
+        <v>0.0386062974652222</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01756723835792</v>
+        <v>0.000862233596311687</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0643718639724507</v>
+        <v>0.0741900880637061</v>
       </c>
     </row>
     <row r="11">
@@ -899,7 +899,7 @@
         <v>0.0234509266720625</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00642657788541433</v>
+        <v>0.00642657788541434</v>
       </c>
       <c r="M11" t="n">
         <v>0.0611888254090724</v>
@@ -910,7 +910,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0423153118436871</v>
+        <v>0.0423890258971802</v>
       </c>
       <c r="C12" t="n">
         <v>0.050449008233722</v>
@@ -934,10 +934,10 @@
         <v>0.0413631073311336</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0435924668129857</v>
+        <v>0.0435924668129858</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0299446570680055</v>
+        <v>0.0304336282398919</v>
       </c>
       <c r="L12" t="n">
         <v>0.0777988628197214</v>
@@ -954,7 +954,7 @@
         <v>0.0399765486156195</v>
       </c>
       <c r="C13" t="n">
-        <v>0.060373951121842</v>
+        <v>0.0603739511218419</v>
       </c>
       <c r="D13" t="n">
         <v>0.0538315457227264</v>
@@ -978,7 +978,7 @@
         <v>0.0378364707404913</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0312017223788672</v>
+        <v>0.0312017223788671</v>
       </c>
       <c r="L13" t="n">
         <v>0.0303083114789396</v>
@@ -1057,7 +1057,7 @@
         <v>0.0874578351856686</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0521707440391608</v>
+        <v>0.0521707440391609</v>
       </c>
       <c r="K15" t="n">
         <v>0.0065631833719026</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0609000822875076</v>
+        <v>0.0609000822875075</v>
       </c>
     </row>
     <row r="18">
@@ -1197,7 +1197,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0311490781893512</v>
+        <v>0.0312227922428442</v>
       </c>
       <c r="C19" t="n">
         <v>0.032541579467393</v>
@@ -1224,7 +1224,7 @@
         <v>0.0177829722154919</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0585588744636717</v>
+        <v>0.0590478456355581</v>
       </c>
       <c r="L19" t="n">
         <v>0.0039835499686648</v>
@@ -1238,10 +1238,10 @@
         <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0296911789823083</v>
+        <v>0.0307759160043767</v>
       </c>
       <c r="C20" t="n">
-        <v>0.018202022204048</v>
+        <v>0.0185734738812219</v>
       </c>
       <c r="D20" t="n">
         <v>0.00993376996509722</v>
@@ -1250,10 +1250,10 @@
         <v>0.0219503872991804</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0179954257801571</v>
+        <v>0.0190755572980811</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00975762464069743</v>
+        <v>0.0116551769289037</v>
       </c>
       <c r="H20" t="n">
         <v>0.0191475138528719</v>
@@ -1271,7 +1271,7 @@
         <v>0.0424901047589513</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0500449221143338</v>
+        <v>0.0524690307082365</v>
       </c>
     </row>
     <row r="21">
@@ -1303,7 +1303,7 @@
         <v>0.0373860187913463</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0199103360766923</v>
+        <v>0.0199103360766924</v>
       </c>
       <c r="K21" t="n">
         <v>0.0182722517383216</v>
@@ -1379,7 +1379,7 @@
         <v>0.00306882833325286</v>
       </c>
       <c r="H23" t="n">
-        <v>0.000876257471860367</v>
+        <v>0.000876257471860368</v>
       </c>
       <c r="I23" t="n">
         <v>0.0136748148581175</v>

--- a/xlsx/country_comparison/field_keyword_main_positive.xlsx
+++ b/xlsx/country_comparison/field_keyword_main_positive.xlsx
@@ -600,7 +600,7 @@
         <v>0.110593408120899</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0788491814450574</v>
+        <v>0.0788491814450573</v>
       </c>
       <c r="I4" t="n">
         <v>0.0959198410759693</v>
@@ -609,7 +609,7 @@
         <v>0.0600154515657946</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0837664649572209</v>
+        <v>0.083766464957221</v>
       </c>
       <c r="L4" t="n">
         <v>0.0602178270789178</v>
@@ -720,7 +720,7 @@
         <v>0.0822118045049334</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0399942430095793</v>
+        <v>0.0399942430095792</v>
       </c>
       <c r="H7" t="n">
         <v>0.0679040031831562</v>
@@ -761,7 +761,7 @@
         <v>0.029744754106229</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0663865396156052</v>
+        <v>0.0663865396156051</v>
       </c>
       <c r="H8" t="n">
         <v>0.0335897645052565</v>
@@ -799,10 +799,10 @@
         <v>0.0437714005759224</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0626502583920119</v>
+        <v>0.0626502583920118</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0110333227815035</v>
+        <v>0.0110333227815034</v>
       </c>
       <c r="H9" t="n">
         <v>0.0514157193779358</v>
@@ -834,7 +834,7 @@
         <v>0.0285615312623572</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0320049726035639</v>
+        <v>0.0320049726035638</v>
       </c>
       <c r="E10" t="n">
         <v>0.0241596296022602</v>
@@ -899,7 +899,7 @@
         <v>0.0234509266720625</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00642657788541434</v>
+        <v>0.00642657788541433</v>
       </c>
       <c r="M11" t="n">
         <v>0.0611888254090724</v>
@@ -954,7 +954,7 @@
         <v>0.0399765486156195</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0603739511218419</v>
+        <v>0.060373951121842</v>
       </c>
       <c r="D13" t="n">
         <v>0.0538315457227264</v>
@@ -978,7 +978,7 @@
         <v>0.0378364707404913</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0312017223788671</v>
+        <v>0.0312017223788672</v>
       </c>
       <c r="L13" t="n">
         <v>0.0303083114789396</v>
@@ -1036,7 +1036,7 @@
         <v>0.0364006259494669</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0529305712288578</v>
+        <v>0.0529305712288579</v>
       </c>
       <c r="D15" t="n">
         <v>0.0357057845818555</v>
@@ -1057,7 +1057,7 @@
         <v>0.0874578351856686</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0521707440391609</v>
+        <v>0.0521707440391608</v>
       </c>
       <c r="K15" t="n">
         <v>0.0065631833719026</v>
@@ -1124,13 +1124,13 @@
         <v>0.0176020083086458</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0233644205389715</v>
+        <v>0.0233644205389716</v>
       </c>
       <c r="F17" t="n">
         <v>0.013900924047365</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00839006350112948</v>
+        <v>0.00839006350112947</v>
       </c>
       <c r="H17" t="n">
         <v>0.00949857755645115</v>
@@ -1159,7 +1159,7 @@
         <v>0.0334827768889531</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0437536500173379</v>
+        <v>0.043753650017338</v>
       </c>
       <c r="D18" t="n">
         <v>0.0235830505733939</v>
@@ -1168,7 +1168,7 @@
         <v>0.0548185750778946</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0698277052752729</v>
+        <v>0.0698277052752728</v>
       </c>
       <c r="G18" t="n">
         <v>0.0172512797273797</v>
@@ -1268,7 +1268,7 @@
         <v>0.00854166358754135</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0424901047589513</v>
+        <v>0.0424901047589512</v>
       </c>
       <c r="M20" t="n">
         <v>0.0524690307082365</v>
@@ -1303,7 +1303,7 @@
         <v>0.0373860187913463</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0199103360766924</v>
+        <v>0.0199103360766923</v>
       </c>
       <c r="K21" t="n">
         <v>0.0182722517383216</v>
@@ -1326,7 +1326,7 @@
         <v>0.0269735173134916</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0213216678839544</v>
+        <v>0.0213216678839543</v>
       </c>
       <c r="E22" t="n">
         <v>0.0154592879988818</v>
@@ -1452,7 +1452,7 @@
         <v>0.0225301695013904</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0231518048949187</v>
+        <v>0.0231518048949188</v>
       </c>
       <c r="F25" t="n">
         <v>0.01332380993786</v>

--- a/xlsx/country_comparison/field_keyword_main_positive.xlsx
+++ b/xlsx/country_comparison/field_keyword_main_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -80,21 +83,27 @@
     <t xml:space="preserve">Government; president</t>
   </si>
   <si>
+    <t xml:space="preserve">International issues</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inflation; cost of living</t>
   </si>
   <si>
-    <t xml:space="preserve">International issues</t>
-  </si>
-  <si>
     <t xml:space="preserve">Poverty; inequality</t>
   </si>
   <si>
     <t xml:space="preserve">Tax system; welfare benefits; public services</t>
   </si>
   <si>
+    <t xml:space="preserve">Old age; retirement; ageing society</t>
+  </si>
+  <si>
     <t xml:space="preserve">Criticism of immigration; national preference</t>
   </si>
   <si>
+    <t xml:space="preserve">Housing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Security; violence; crime; judicial system</t>
   </si>
   <si>
@@ -104,22 +113,16 @@
     <t xml:space="preserve">Environment; climate change</t>
   </si>
   <si>
-    <t xml:space="preserve">Old age; retirement; ageing society</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
   </si>
   <si>
     <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
   </si>
   <si>
-    <t xml:space="preserve">Housing</t>
+    <t xml:space="preserve">Happiness; peace of mind</t>
   </si>
   <si>
     <t xml:space="preserve">Trump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Happiness; peace of mind</t>
   </si>
   <si>
     <t xml:space="preserve">Relationships; love; emotions</t>
@@ -494,13 +497,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.191001826696918</v>
+        <v>0.182321037798967</v>
       </c>
       <c r="C2" t="n">
         <v>0.161772357883732</v>
@@ -527,21 +533,24 @@
         <v>0.151337475119412</v>
       </c>
       <c r="K2" t="n">
-        <v>0.205832291864807</v>
+        <v>0.205749694909397</v>
       </c>
       <c r="L2" t="n">
+        <v>0.128357235867269</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.160511571395735</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.221188870463737</v>
+      <c r="N2" t="n">
+        <v>0.22136380470097</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.102522481676616</v>
+        <v>0.100995060768002</v>
       </c>
       <c r="C3" t="n">
         <v>0.126903713743287</v>
@@ -568,21 +577,24 @@
         <v>0.103994548882937</v>
       </c>
       <c r="K3" t="n">
-        <v>0.043755762564489</v>
+        <v>0.0438097949544678</v>
       </c>
       <c r="L3" t="n">
+        <v>0.0918208304430512</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.0481397016758384</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.102761471260059</v>
+      <c r="N3" t="n">
+        <v>0.102648655642718</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0926148225458337</v>
+        <v>0.088154808321385</v>
       </c>
       <c r="C4" t="n">
         <v>0.0907163404224399</v>
@@ -609,21 +621,24 @@
         <v>0.0600154515657946</v>
       </c>
       <c r="K4" t="n">
-        <v>0.083766464957221</v>
+        <v>0.0838073240940032</v>
       </c>
       <c r="L4" t="n">
+        <v>0.0608786217043796</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.0602178270789178</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.101147499261693</v>
+      <c r="N4" t="n">
+        <v>0.101040837559806</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0719953021996957</v>
+        <v>0.0711807113712516</v>
       </c>
       <c r="C5" t="n">
         <v>0.0651884757861758</v>
@@ -635,7 +650,7 @@
         <v>0.042692829320797</v>
       </c>
       <c r="F5" t="n">
-        <v>0.068943987542847</v>
+        <v>0.0689439875428471</v>
       </c>
       <c r="G5" t="n">
         <v>0.0767926429993233</v>
@@ -650,21 +665,24 @@
         <v>0.0428373737667234</v>
       </c>
       <c r="K5" t="n">
-        <v>0.073122986528768</v>
+        <v>0.0731479352716921</v>
       </c>
       <c r="L5" t="n">
+        <v>0.0662071089146564</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.102037616300348</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.0766628969189353</v>
+      <c r="N5" t="n">
+        <v>0.0766206382747447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0652401488665648</v>
+        <v>0.060736531600857</v>
       </c>
       <c r="C6" t="n">
         <v>0.0942459172240121</v>
@@ -691,21 +709,24 @@
         <v>0.0856719423556321</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0374876519516756</v>
+        <v>0.0375112362668072</v>
       </c>
       <c r="L6" t="n">
+        <v>0.0330590623121272</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.0420394789499737</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.045168707317568</v>
+      <c r="N6" t="n">
+        <v>0.0452396364869285</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0556521348121941</v>
+        <v>0.0553504218200639</v>
       </c>
       <c r="C7" t="n">
         <v>0.0607223120240159</v>
@@ -720,7 +741,7 @@
         <v>0.0822118045049334</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0399942430095792</v>
+        <v>0.0399942430095793</v>
       </c>
       <c r="H7" t="n">
         <v>0.0679040031831562</v>
@@ -732,21 +753,24 @@
         <v>0.0316915930729731</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0426113108440731</v>
+        <v>0.0426050988618772</v>
       </c>
       <c r="L7" t="n">
+        <v>0.0534989239387084</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.101771032271278</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.0509506085226378</v>
+      <c r="N7" t="n">
+        <v>0.050970650353524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0477259048171108</v>
+        <v>0.0469900026163117</v>
       </c>
       <c r="C8" t="n">
         <v>0.0409974052476144</v>
@@ -761,7 +785,7 @@
         <v>0.029744754106229</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0663865396156051</v>
+        <v>0.0663865396156052</v>
       </c>
       <c r="H8" t="n">
         <v>0.0335897645052565</v>
@@ -773,21 +797,24 @@
         <v>0.0247185603776682</v>
       </c>
       <c r="K8" t="n">
-        <v>0.134617466254815</v>
+        <v>0.134585103893787</v>
       </c>
       <c r="L8" t="n">
+        <v>0.0426251947414407</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.0358156854121428</v>
       </c>
-      <c r="M8" t="n">
-        <v>0.0220652650835128</v>
+      <c r="N8" t="n">
+        <v>0.0221130651051977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0476724774114825</v>
+        <v>0.0428925022529864</v>
       </c>
       <c r="C9" t="n">
         <v>0.0387734005589055</v>
@@ -799,10 +826,10 @@
         <v>0.0437714005759224</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0626502583920118</v>
+        <v>0.0626502583920119</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0110333227815034</v>
+        <v>0.0110333227815035</v>
       </c>
       <c r="H9" t="n">
         <v>0.0514157193779358</v>
@@ -814,21 +841,24 @@
         <v>0.0309094204739583</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0350799700385311</v>
+        <v>0.035094409747487</v>
       </c>
       <c r="L9" t="n">
+        <v>0.0134987979493771</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.0199711849845625</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.0652625479002723</v>
+      <c r="N9" t="n">
+        <v>0.0651946587957189</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0465217339438901</v>
+        <v>0.0403203062652297</v>
       </c>
       <c r="C10" t="n">
         <v>0.0285615312623572</v>
@@ -855,106 +885,115 @@
         <v>0.0189273882550392</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0386062974652222</v>
+        <v>0.0385965646907139</v>
       </c>
       <c r="L10" t="n">
+        <v>0.00223387876409278</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.000862233596311687</v>
       </c>
-      <c r="M10" t="n">
-        <v>0.0741900880637061</v>
+      <c r="N10" t="n">
+        <v>0.074073346356152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0429062445703473</v>
+        <v>0.0389960678335084</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0364601289385647</v>
+        <v>0.050449008233722</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0150595822264171</v>
+        <v>0.0547130842188104</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0227496674399152</v>
+        <v>0.0590899980535088</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0489918617466034</v>
+        <v>0.0512751354655843</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0284025769810721</v>
+        <v>0.0539464981958894</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0286133153886044</v>
+        <v>0.0394128679957092</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0768024795846809</v>
+        <v>0.0413631073311336</v>
       </c>
       <c r="J11" t="n">
-        <v>0.018779014651579</v>
+        <v>0.0435924668129858</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0234509266720625</v>
+        <v>0.0304564891017079</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00642657788541433</v>
+        <v>0.017840134031664</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0611888254090724</v>
+        <v>0.0777988628197214</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0349429275482588</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0423890258971802</v>
+        <v>0.0384638187662071</v>
       </c>
       <c r="C12" t="n">
-        <v>0.050449008233722</v>
+        <v>0.0364601289385647</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0547130842188104</v>
+        <v>0.0150595822264171</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0590899980535088</v>
+        <v>0.0227496674399152</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0512751354655843</v>
+        <v>0.0489918617466034</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0539464981958894</v>
+        <v>0.0284025769810721</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0394128679957092</v>
+        <v>0.0286133153886044</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0413631073311336</v>
+        <v>0.0768024795846809</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0435924668129858</v>
+        <v>0.018779014651579</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0304336282398919</v>
+        <v>0.0234399934012472</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0777988628197214</v>
+        <v>0.0107231605115973</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0347918548465266</v>
+        <v>0.00642657788541434</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0613077559670346</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0399765486156195</v>
+        <v>0.0373562141560839</v>
       </c>
       <c r="C13" t="n">
-        <v>0.060373951121842</v>
+        <v>0.0603739511218419</v>
       </c>
       <c r="D13" t="n">
         <v>0.0538315457227264</v>
@@ -978,21 +1017,24 @@
         <v>0.0378364707404913</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0312017223788672</v>
+        <v>0.0312099154110523</v>
       </c>
       <c r="L13" t="n">
+        <v>0.021268099021952</v>
+      </c>
+      <c r="M13" t="n">
         <v>0.0303083114789396</v>
       </c>
-      <c r="M13" t="n">
-        <v>0.0210228669546123</v>
+      <c r="N13" t="n">
+        <v>0.0210887233519309</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0388885008585323</v>
+        <v>0.0336191355177953</v>
       </c>
       <c r="C14" t="n">
         <v>0.0292223231542092</v>
@@ -1019,431 +1061,464 @@
         <v>0.0187933388549178</v>
       </c>
       <c r="K14" t="n">
-        <v>0.103942620695345</v>
+        <v>0.103938267948727</v>
       </c>
       <c r="L14" t="n">
+        <v>0.00138736039927219</v>
+      </c>
+      <c r="M14" t="n">
         <v>0.00208813427186945</v>
       </c>
-      <c r="M14" t="n">
-        <v>0.0274244762404715</v>
+      <c r="N14" t="n">
+        <v>0.0274075262990083</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0364006259494669</v>
+        <v>0.0332160574775112</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0529305712288579</v>
+        <v>0.032541579467393</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0357057845818555</v>
+        <v>0.0273958857117257</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0780398179127967</v>
+        <v>0.0684305271844509</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0274281677578105</v>
+        <v>0.0124141813050852</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0350434292800761</v>
+        <v>0.0153742552149</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0321540740533865</v>
+        <v>0.0186892581057893</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0874578351856686</v>
+        <v>0.0325524793108507</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0521707440391608</v>
+        <v>0.0177829722154919</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0065631833719026</v>
+        <v>0.0590920345710629</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00199639412499814</v>
+        <v>0.0455635490148159</v>
       </c>
       <c r="M15" t="n">
-        <v>0.032384488178167</v>
+        <v>0.0039835499686648</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0210925808322273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0342322407856359</v>
+        <v>0.0319649704467399</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0281598134127114</v>
+        <v>0.0529305712288578</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0163917340461058</v>
+        <v>0.0357057845818555</v>
       </c>
       <c r="E16" t="n">
-        <v>0.020089009677194</v>
+        <v>0.0780398179127967</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0395814308851999</v>
+        <v>0.0274281677578105</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0129502889634224</v>
+        <v>0.0350434292800761</v>
       </c>
       <c r="H16" t="n">
-        <v>0.023924431046729</v>
+        <v>0.0321540740533865</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0531799879492298</v>
+        <v>0.0874578351856686</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0176989396518012</v>
+        <v>0.0521707440391609</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0217538686061405</v>
+        <v>0.00656675605998006</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0111451584411178</v>
+        <v>0.00476136709085499</v>
       </c>
       <c r="M16" t="n">
-        <v>0.048142987879757</v>
+        <v>0.00199639412499814</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0323753859474656</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0340152045106673</v>
+        <v>0.0304488376315802</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0157395055510232</v>
+        <v>0.0269735173134916</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0176020083086458</v>
+        <v>0.0213216678839544</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0233644205389716</v>
+        <v>0.0154592879988818</v>
       </c>
       <c r="F17" t="n">
-        <v>0.013900924047365</v>
+        <v>0.0229261585613421</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00839006350112947</v>
+        <v>0.0330329698045628</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00949857755645115</v>
+        <v>0.0560473240220591</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0149198636575293</v>
+        <v>0.0278306333783973</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0140747856649723</v>
+        <v>0.0144175784657228</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0263887720673798</v>
+        <v>0.0146534566511689</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.0592517001731302</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0609000822875075</v>
+        <v>0.0319695272437633</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0282176459782966</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0334827768889531</v>
+        <v>0.0302795812721631</v>
       </c>
       <c r="C18" t="n">
-        <v>0.043753650017338</v>
+        <v>0.0281598134127114</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0235830505733939</v>
+        <v>0.0163917340461058</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0548185750778946</v>
+        <v>0.020089009677194</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0698277052752728</v>
+        <v>0.0395814308851999</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0172512797273797</v>
+        <v>0.0129502889634224</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0355182686179697</v>
+        <v>0.023924431046729</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0469875691317198</v>
+        <v>0.0531799879492298</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0467077004351659</v>
+        <v>0.0176989396518012</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0141544743300113</v>
+        <v>0.0217650060909604</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0497244153114467</v>
+        <v>0.00586038734211524</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0279746291543814</v>
+        <v>0.0111451584411178</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0481378270190486</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0312227922428442</v>
+        <v>0.029472401622532</v>
       </c>
       <c r="C19" t="n">
-        <v>0.032541579467393</v>
+        <v>0.0157395055510232</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0273958857117257</v>
+        <v>0.0176020083086458</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0684305271844509</v>
+        <v>0.0233644205389716</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0124141813050852</v>
+        <v>0.013900924047365</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0153742552149</v>
+        <v>0.00839006350112947</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0186892581057893</v>
+        <v>0.00949857755645115</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0325524793108507</v>
+        <v>0.0149198636575293</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0177829722154919</v>
+        <v>0.0140747856649723</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0590478456355581</v>
+        <v>0.026397328866856</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0039835499686648</v>
+        <v>0.00140206063911074</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0211114561430301</v>
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0608546638483413</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0307759160043767</v>
+        <v>0.0290290271298219</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0185734738812219</v>
+        <v>0.0437536500173379</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00993376996509722</v>
+        <v>0.0235830505733939</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0219503872991804</v>
+        <v>0.0548185750778946</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0190755572980811</v>
+        <v>0.0698277052752728</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0116551769289037</v>
+        <v>0.0172512797273797</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0191475138528719</v>
+        <v>0.0355182686179697</v>
       </c>
       <c r="I20" t="n">
-        <v>0.026083694384323</v>
+        <v>0.0469875691317198</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0185893481653607</v>
+        <v>0.0467077004351659</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00854166358754135</v>
+        <v>0.0141680897206946</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0424901047589512</v>
+        <v>0.0016522224901023</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0524690307082365</v>
+        <v>0.0497244153114467</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0279939370302207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0285256152410418</v>
+        <v>0.0273840558766951</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0235491585698141</v>
+        <v>0.0185734738812219</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0247295118635322</v>
+        <v>0.00993376996509722</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0199228701141335</v>
+        <v>0.0219503872991804</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0239889324483805</v>
+        <v>0.0190755572980811</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00842241494155756</v>
+        <v>0.0116551769289037</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0215439821623808</v>
+        <v>0.0191475138528719</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0373860187913463</v>
+        <v>0.026083694384323</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0199103360766923</v>
+        <v>0.0185893481653607</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0182722517383216</v>
+        <v>0.00855123830249976</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0270490585304728</v>
+        <v>0.00643806063116806</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0383946720550349</v>
+        <v>0.0424901047589513</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0524220495695358</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0257284486947377</v>
+        <v>0.0247509642480483</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0269735173134916</v>
+        <v>0.0235491585698141</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0213216678839543</v>
+        <v>0.0247295118635322</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0154592879988818</v>
+        <v>0.0199228701141335</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0229261585613421</v>
+        <v>0.0239889324483805</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0330329698045628</v>
+        <v>0.00842241494155756</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0560473240220591</v>
+        <v>0.0215439821623808</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0278306333783973</v>
+        <v>0.0373860187913463</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0144175784657228</v>
+        <v>0.0199103360766923</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0146475486345751</v>
+        <v>0.0182662703177434</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0319695272437633</v>
+        <v>0.00159299207370676</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0281417278589565</v>
+        <v>0.0270490585304728</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0383410720026572</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0254748235998701</v>
+        <v>0.0223801820434425</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00961126540544619</v>
+        <v>0.0278669994830184</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0149985738479522</v>
+        <v>0.0229189212280595</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0114707836995252</v>
+        <v>0.0180669488001356</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00722338775958125</v>
+        <v>0.043761530187622</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00306882833325286</v>
+        <v>0.00404139647620237</v>
       </c>
       <c r="H23" t="n">
-        <v>0.000876257471860368</v>
+        <v>0.0227917901718656</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0136748148581175</v>
+        <v>0.0506642953767923</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0140747856649723</v>
+        <v>0.0107545909645981</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0209606501115299</v>
+        <v>0.00815618955253707</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.0105472628002141</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0476197684586534</v>
+        <v>0.0125275022226377</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0276605926752763</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0243064389121357</v>
+        <v>0.0219291560180485</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0278669994830184</v>
+        <v>0.00961126540544619</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0229189212280595</v>
+        <v>0.0149985738479522</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0180669488001356</v>
+        <v>0.0114707836995252</v>
       </c>
       <c r="F24" t="n">
-        <v>0.043761530187622</v>
+        <v>0.00722338775958125</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00404139647620237</v>
+        <v>0.00306882833325286</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0227917901718656</v>
+        <v>0.000876257471860367</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0506642953767923</v>
+        <v>0.0136748148581175</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0107545909645981</v>
+        <v>0.0140747856649723</v>
       </c>
       <c r="K24" t="n">
-        <v>0.00815155499969941</v>
+        <v>0.0209611471772189</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0125275022226377</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0276779145361473</v>
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0475907360468383</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0194266743379861</v>
+        <v>0.0194397523322192</v>
       </c>
       <c r="C25" t="n">
         <v>0.018120854570026</v>
@@ -1452,7 +1527,7 @@
         <v>0.0225301695013904</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0231518048949188</v>
+        <v>0.0231518048949187</v>
       </c>
       <c r="F25" t="n">
         <v>0.01332380993786</v>
@@ -1470,13 +1545,16 @@
         <v>0.00674796494606546</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00398273928943182</v>
+        <v>0.00398912595078207</v>
       </c>
       <c r="L25" t="n">
+        <v>0.0194287855799425</v>
+      </c>
+      <c r="M25" t="n">
         <v>0.0153588440444347</v>
       </c>
-      <c r="M25" t="n">
-        <v>0.0273896433273981</v>
+      <c r="N25" t="n">
+        <v>0.0273943271811495</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/field_keyword_main_positive.xlsx
+++ b/xlsx/country_comparison/field_keyword_main_positive.xlsx
@@ -506,7 +506,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.182321037798967</v>
+        <v>0.182430321710093</v>
       </c>
       <c r="C2" t="n">
         <v>0.161772357883732</v>
@@ -536,7 +536,7 @@
         <v>0.205749694909397</v>
       </c>
       <c r="L2" t="n">
-        <v>0.128357235867269</v>
+        <v>0.129138121059947</v>
       </c>
       <c r="M2" t="n">
         <v>0.160511571395735</v>
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.100995060768002</v>
+        <v>0.101039707550088</v>
       </c>
       <c r="C3" t="n">
         <v>0.126903713743287</v>
@@ -580,13 +580,13 @@
         <v>0.0438097949544678</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0918208304430512</v>
+        <v>0.0921398528011717</v>
       </c>
       <c r="M3" t="n">
         <v>0.0481397016758384</v>
       </c>
       <c r="N3" t="n">
-        <v>0.102648655642718</v>
+        <v>0.102648655642717</v>
       </c>
     </row>
     <row r="4">
@@ -594,7 +594,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.088154808321385</v>
+        <v>0.0882210761734028</v>
       </c>
       <c r="C4" t="n">
         <v>0.0907163404224399</v>
@@ -624,7 +624,7 @@
         <v>0.0838073240940032</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0608786217043796</v>
+        <v>0.0613521368252994</v>
       </c>
       <c r="M4" t="n">
         <v>0.0602178270789178</v>
@@ -638,7 +638,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0711807113712516</v>
+        <v>0.0712632397114504</v>
       </c>
       <c r="C5" t="n">
         <v>0.0651884757861758</v>
@@ -650,7 +650,7 @@
         <v>0.042692829320797</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0689439875428471</v>
+        <v>0.068943987542847</v>
       </c>
       <c r="G5" t="n">
         <v>0.0767926429993233</v>
@@ -668,7 +668,7 @@
         <v>0.0731479352716921</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0662071089146564</v>
+        <v>0.0667968129083522</v>
       </c>
       <c r="M5" t="n">
         <v>0.102037616300348</v>
@@ -682,13 +682,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.060736531600857</v>
+        <v>0.0607584240168585</v>
       </c>
       <c r="C6" t="n">
         <v>0.0942459172240121</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0676862447367624</v>
+        <v>0.0676862447367625</v>
       </c>
       <c r="E6" t="n">
         <v>0.110163507125438</v>
@@ -712,7 +712,7 @@
         <v>0.0375112362668072</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0330590623121272</v>
+        <v>0.0332154939708353</v>
       </c>
       <c r="M6" t="n">
         <v>0.0420394789499737</v>
@@ -726,7 +726,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0553504218200639</v>
+        <v>0.055412774324824</v>
       </c>
       <c r="C7" t="n">
         <v>0.0607223120240159</v>
@@ -756,7 +756,7 @@
         <v>0.0426050988618772</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0534989239387084</v>
+        <v>0.0539444620530744</v>
       </c>
       <c r="M7" t="n">
         <v>0.101771032271278</v>
@@ -770,7 +770,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0469900026163117</v>
+        <v>0.046815163770379</v>
       </c>
       <c r="C8" t="n">
         <v>0.0409974052476144</v>
@@ -785,13 +785,13 @@
         <v>0.029744754106229</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0663865396156052</v>
+        <v>0.0663865396156051</v>
       </c>
       <c r="H8" t="n">
         <v>0.0335897645052565</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0279930616552985</v>
+        <v>0.0279930616552986</v>
       </c>
       <c r="J8" t="n">
         <v>0.0247185603776682</v>
@@ -800,7 +800,7 @@
         <v>0.134585103893787</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0426251947414407</v>
+        <v>0.04137588855824</v>
       </c>
       <c r="M8" t="n">
         <v>0.0358156854121428</v>
@@ -814,7 +814,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0428925022529864</v>
+        <v>0.0429171462422951</v>
       </c>
       <c r="C9" t="n">
         <v>0.0387734005589055</v>
@@ -826,10 +826,10 @@
         <v>0.0437714005759224</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0626502583920119</v>
+        <v>0.0626502583920118</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0110333227815035</v>
+        <v>0.0110333227815034</v>
       </c>
       <c r="H9" t="n">
         <v>0.0514157193779358</v>
@@ -844,7 +844,7 @@
         <v>0.035094409747487</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0134987979493771</v>
+        <v>0.0136748908997614</v>
       </c>
       <c r="M9" t="n">
         <v>0.0199711849845625</v>
@@ -858,13 +858,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0403203062652297</v>
+        <v>0.0403210832786613</v>
       </c>
       <c r="C10" t="n">
         <v>0.0285615312623572</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0320049726035638</v>
+        <v>0.0320049726035639</v>
       </c>
       <c r="E10" t="n">
         <v>0.0241596296022602</v>
@@ -888,7 +888,7 @@
         <v>0.0385965646907139</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00223387876409278</v>
+        <v>0.00223943089227911</v>
       </c>
       <c r="M10" t="n">
         <v>0.000862233596311687</v>
@@ -902,7 +902,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0389960678335084</v>
+        <v>0.0390084048943894</v>
       </c>
       <c r="C11" t="n">
         <v>0.050449008233722</v>
@@ -926,13 +926,13 @@
         <v>0.0413631073311336</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0435924668129858</v>
+        <v>0.0435924668129857</v>
       </c>
       <c r="K11" t="n">
         <v>0.0304564891017079</v>
       </c>
       <c r="L11" t="n">
-        <v>0.017840134031664</v>
+        <v>0.0179282881621661</v>
       </c>
       <c r="M11" t="n">
         <v>0.0777988628197214</v>
@@ -946,7 +946,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0384638187662071</v>
+        <v>0.0384808913292799</v>
       </c>
       <c r="C12" t="n">
         <v>0.0364601289385647</v>
@@ -976,7 +976,7 @@
         <v>0.0234399934012472</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0107231605115973</v>
+        <v>0.0108451520432626</v>
       </c>
       <c r="M12" t="n">
         <v>0.00642657788541434</v>
@@ -990,10 +990,10 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0373562141560839</v>
+        <v>0.0373679582677434</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0603739511218419</v>
+        <v>0.060373951121842</v>
       </c>
       <c r="D13" t="n">
         <v>0.0538315457227264</v>
@@ -1020,7 +1020,7 @@
         <v>0.0312099154110523</v>
       </c>
       <c r="L13" t="n">
-        <v>0.021268099021952</v>
+        <v>0.021352016250038</v>
       </c>
       <c r="M13" t="n">
         <v>0.0303083114789396</v>
@@ -1034,7 +1034,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0336191355177953</v>
+        <v>0.0336204916297818</v>
       </c>
       <c r="C14" t="n">
         <v>0.0292223231542092</v>
@@ -1064,7 +1064,7 @@
         <v>0.103938267948727</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00138736039927219</v>
+        <v>0.00139705046031553</v>
       </c>
       <c r="M14" t="n">
         <v>0.00208813427186945</v>
@@ -1078,7 +1078,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0332160574775112</v>
+        <v>0.0330307542341729</v>
       </c>
       <c r="C15" t="n">
         <v>0.032541579467393</v>
@@ -1108,7 +1108,7 @@
         <v>0.0590920345710629</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0455635490148159</v>
+        <v>0.0442394697666676</v>
       </c>
       <c r="M15" t="n">
         <v>0.0039835499686648</v>
@@ -1122,10 +1122,10 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0319649704467399</v>
+        <v>0.0319653854911546</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0529305712288578</v>
+        <v>0.0529305712288579</v>
       </c>
       <c r="D16" t="n">
         <v>0.0357057845818555</v>
@@ -1146,13 +1146,13 @@
         <v>0.0874578351856686</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0521707440391609</v>
+        <v>0.0521707440391608</v>
       </c>
       <c r="K16" t="n">
         <v>0.00656675605998006</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00476136709085499</v>
+        <v>0.00476433277934832</v>
       </c>
       <c r="M16" t="n">
         <v>0.00199639412499814</v>
@@ -1166,7 +1166,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0304488376315802</v>
+        <v>0.0304347313692209</v>
       </c>
       <c r="C17" t="n">
         <v>0.0269735173134916</v>
@@ -1196,7 +1196,7 @@
         <v>0.0146534566511689</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0592517001731302</v>
+        <v>0.059150904261939</v>
       </c>
       <c r="M17" t="n">
         <v>0.0319695272437633</v>
@@ -1210,7 +1210,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0302795812721631</v>
+        <v>0.0302807029282993</v>
       </c>
       <c r="C18" t="n">
         <v>0.0281598134127114</v>
@@ -1240,7 +1240,7 @@
         <v>0.0217650060909604</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00586038734211524</v>
+        <v>0.00586840210530472</v>
       </c>
       <c r="M18" t="n">
         <v>0.0111451584411178</v>
@@ -1254,7 +1254,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029472401622532</v>
+        <v>0.0294706581204728</v>
       </c>
       <c r="C19" t="n">
         <v>0.0157395055510232</v>
@@ -1263,7 +1263,7 @@
         <v>0.0176020083086458</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0233644205389716</v>
+        <v>0.0233644205389715</v>
       </c>
       <c r="F19" t="n">
         <v>0.013900924047365</v>
@@ -1284,7 +1284,7 @@
         <v>0.026397328866856</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00140206063911074</v>
+        <v>0.00138960249291671</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1298,10 +1298,10 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0290290271298219</v>
+        <v>0.0290303742646181</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0437536500173379</v>
+        <v>0.043753650017338</v>
       </c>
       <c r="D20" t="n">
         <v>0.0235830505733939</v>
@@ -1328,7 +1328,7 @@
         <v>0.0141680897206946</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0016522224901023</v>
+        <v>0.00166184840487837</v>
       </c>
       <c r="M20" t="n">
         <v>0.0497244153114467</v>
@@ -1342,7 +1342,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0273840558766951</v>
+        <v>0.0273914867208431</v>
       </c>
       <c r="C21" t="n">
         <v>0.0185734738812219</v>
@@ -1372,10 +1372,10 @@
         <v>0.00855123830249976</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00643806063116806</v>
+        <v>0.0064911575244298</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0424901047589513</v>
+        <v>0.0424901047589512</v>
       </c>
       <c r="N21" t="n">
         <v>0.0524220495695358</v>
@@ -1386,7 +1386,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0247509642480483</v>
+        <v>0.0247534685263668</v>
       </c>
       <c r="C22" t="n">
         <v>0.0235491585698141</v>
@@ -1416,7 +1416,7 @@
         <v>0.0182662703177434</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00159299207370676</v>
+        <v>0.0016108863258171</v>
       </c>
       <c r="M22" t="n">
         <v>0.0270490585304728</v>
@@ -1430,7 +1430,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0223801820434425</v>
+        <v>0.0223854621456055</v>
       </c>
       <c r="C23" t="n">
         <v>0.0278669994830184</v>
@@ -1460,7 +1460,7 @@
         <v>0.00815618955253707</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0105472628002141</v>
+        <v>0.0105849916255501</v>
       </c>
       <c r="M23" t="n">
         <v>0.0125275022226377</v>
@@ -1477,7 +1477,7 @@
         <v>0.0219291560180485</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00961126540544619</v>
+        <v>0.0096112654054462</v>
       </c>
       <c r="D24" t="n">
         <v>0.0149985738479522</v>
@@ -1492,7 +1492,7 @@
         <v>0.00306882833325286</v>
       </c>
       <c r="H24" t="n">
-        <v>0.000876257471860367</v>
+        <v>0.000876257471860368</v>
       </c>
       <c r="I24" t="n">
         <v>0.0136748148581175</v>
@@ -1518,7 +1518,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0194397523322192</v>
+        <v>0.0194581482699632</v>
       </c>
       <c r="C25" t="n">
         <v>0.018120854570026</v>
@@ -1548,7 +1548,7 @@
         <v>0.00398912595078207</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0194287855799425</v>
+        <v>0.019560233249062</v>
       </c>
       <c r="M25" t="n">
         <v>0.0153588440444347</v>
